--- a/biology/Zoologie/Carlia_jarnoldae/Carlia_jarnoldae.xlsx
+++ b/biology/Zoologie/Carlia_jarnoldae/Carlia_jarnoldae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlia jarnoldae est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlia jarnoldae est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jennifer "Jenny" Mary Arnold[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jennifer "Jenny" Mary Arnold.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Covacevich &amp; Ingram, 1975 : Three new species of rainbow skinks of the genus Carlia from northern Queensland. The Victorian Naturalist, vol. 92, no 1-2, p. 19-22 (texte intégral).</t>
         </is>
